--- a/biology/Botanique/Pittosporum_multiflorum/Pittosporum_multiflorum.xlsx
+++ b/biology/Botanique/Pittosporum_multiflorum/Pittosporum_multiflorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pittosporum multiflorum est une espèce de plantes à fleurs de la famille des Pittosporaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pittosporum multiflorum atteint une hauteur de 1 à 3 mètres. Le branchage a une ramification épaisse avec de petites épines. Les feuilles sont presque circulaires, font de 3 à 12 mm de long, pratiquement sans pétiole. Elles sont principalement dentées, rarement entières. La floraison a lieu au printemps ou en été.
 Le fruit orange persiste souvent sur la plante. La régénération à partir de graines fraîches est lente mais assez fiable. La plante ressemble beaucoup à Pittosporum spinescens, mais se distingue facilement par ses bords dentés.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pittosporum multiflorum pousse sur des schistes ou des sols volcaniques en Australie, d'Eden, en Nouvelle-Galles du Sud, au nord du Queensland, habituellement dans des forêts humides ou à proximité.
 </t>
